--- a/biology/Histoire de la zoologie et de la botanique/Marie_Jean-Eudes/Marie_Jean-Eudes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Marie_Jean-Eudes/Marie_Jean-Eudes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sœur Marie Jean-Eudes, née Eugénie Tellier (1897, Saint-Damien - 1978, Lachine) est une religieuse des sœurs de Sainte-Anne, naturaliste et botaniste canadienne. Elle œuvra à la vulgarisation scientifique et elle a publié plusieurs articles en biologie, en géologie et en botanique. Elle est considérée comme une pionnière de l'étude des sciences naturelles au Québec.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fille de Joseph Tellier et de Rosalie Mondor, Marie-Bernadette-Eugénie Tellier est née en 1897 à Saint-Damien, au nord-ouest de Joliette. Elle a étudié auprès du frère Marie-Victorin entre 1925 et 1931. En 1931, elle participe à la création des Cercles des jeunes naturalistes dont elle est la coordinatrice au sein des sœurs de Sainte-Anne. Elle obtient sa maîtrise en 1943 traitant sur la flore de Rawdon. Elle organise un musée d'histoire naturelle[Lequel ?] à Lachine. Elle sera 1re vice-présidente des CJN (1940-1947), 2e vice-présidente (1947-1955), présidente-générale (1955-1957), directrice-générale (1954-1963) et secrétaire du bureau (1958-1963). Elle entreprendra une monographie des Cercles des jeunes naturalistes qui sera publiée à titre posthume en 1981[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fille de Joseph Tellier et de Rosalie Mondor, Marie-Bernadette-Eugénie Tellier est née en 1897 à Saint-Damien, au nord-ouest de Joliette. Elle a étudié auprès du frère Marie-Victorin entre 1925 et 1931. En 1931, elle participe à la création des Cercles des jeunes naturalistes dont elle est la coordinatrice au sein des sœurs de Sainte-Anne. Elle obtient sa maîtrise en 1943 traitant sur la flore de Rawdon. Elle organise un musée d'histoire naturelle[Lequel ?] à Lachine. Elle sera 1re vice-présidente des CJN (1940-1947), 2e vice-présidente (1947-1955), présidente-générale (1955-1957), directrice-générale (1954-1963) et secrétaire du bureau (1958-1963). Elle entreprendra une monographie des Cercles des jeunes naturalistes qui sera publiée à titre posthume en 1981.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Ouvrage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Eudes, Marie, Les cercles des Jeunes Naturalistes, Éditions Sainte-Anne, Lachine, 1981.
 </t>
@@ -573,9 +589,11 @@
           <t>Honneur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gouvernement nomma la réserve écologique Marie-Jean-Eudes, située dans la réserve faunique Mastigouche en Mauricie en son honneur en 1992[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gouvernement nomma la réserve écologique Marie-Jean-Eudes, située dans la réserve faunique Mastigouche en Mauricie en son honneur en 1992.
 </t>
         </is>
       </c>
